--- a/biology/Médecine/Urgence_en_odontologie/Urgence_en_odontologie.xlsx
+++ b/biology/Médecine/Urgence_en_odontologie/Urgence_en_odontologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le seul et unique critère d'urgence en odontologie est la douleur. Les autres urgences ne sont en réalité que des soins « pressés ».
 Cette douleur peut avoir plusieurs origines et le but du traitement d'urgence est de supprimer cette cause ou d'en diminuer les effets en attendant qu'un traitement complet puisse être entrepris.
@@ -515,7 +527,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gingivite ulcéro-nécrotique
  Portail de la médecine                     </t>
